--- a/src/output/results3.xlsx
+++ b/src/output/results3.xlsx
@@ -336,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B365"/>
+  <dimension ref="A1:E365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -346,498 +346,1056 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>5018.0</v>
+        <v>0.0</v>
       </c>
       <c r="B1" t="n">
-        <v>1258.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5263.0</v>
+        <v>0.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1225.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4592.0</v>
+        <v>0.0</v>
       </c>
       <c r="B3" t="n">
-        <v>1427.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4036.0</v>
+        <v>0.0</v>
       </c>
       <c r="B4" t="n">
-        <v>1892.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3699.0</v>
+        <v>2.0</v>
       </c>
       <c r="B5" t="n">
-        <v>2098.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3489.0</v>
+        <v>6.0</v>
       </c>
       <c r="B6" t="n">
-        <v>1828.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3305.0</v>
+        <v>10.0</v>
       </c>
       <c r="B7" t="n">
-        <v>1628.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3177.0</v>
+        <v>18.0</v>
       </c>
       <c r="B8" t="n">
-        <v>1558.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2957.0</v>
+        <v>29.0</v>
       </c>
       <c r="B9" t="n">
-        <v>1453.0</v>
+        <v>29.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2855.0</v>
+        <v>37.0</v>
       </c>
       <c r="B10" t="n">
-        <v>1431.0</v>
+        <v>37.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2922.0</v>
+        <v>46.0</v>
       </c>
       <c r="B11" t="n">
-        <v>1386.0</v>
+        <v>45.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2934.0</v>
+        <v>58.0</v>
       </c>
       <c r="B12" t="n">
-        <v>1358.0</v>
+        <v>57.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2774.0</v>
+        <v>70.0</v>
       </c>
       <c r="B13" t="n">
-        <v>1302.0</v>
+        <v>67.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2744.0</v>
+        <v>83.0</v>
       </c>
       <c r="B14" t="n">
-        <v>1227.0</v>
+        <v>79.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2680.0</v>
+        <v>109.0</v>
       </c>
       <c r="B15" t="n">
-        <v>1228.0</v>
+        <v>99.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2594.0</v>
+        <v>130.0</v>
       </c>
       <c r="B16" t="n">
-        <v>1168.0</v>
+        <v>115.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2750.0</v>
+        <v>150.0</v>
       </c>
       <c r="B17" t="n">
-        <v>1196.0</v>
+        <v>133.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2666.0</v>
+        <v>180.0</v>
       </c>
       <c r="B18" t="n">
-        <v>1157.0</v>
+        <v>162.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2585.0</v>
+        <v>211.0</v>
       </c>
       <c r="B19" t="n">
-        <v>1176.0</v>
+        <v>185.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2665.0</v>
+        <v>205.0</v>
       </c>
       <c r="B20" t="n">
-        <v>1104.0</v>
+        <v>186.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2693.0</v>
+        <v>241.0</v>
       </c>
       <c r="B21" t="n">
-        <v>1141.0</v>
+        <v>219.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2695.0</v>
+        <v>275.0</v>
       </c>
       <c r="B22" t="n">
-        <v>1082.0</v>
+        <v>240.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2553.0</v>
+        <v>319.0</v>
       </c>
       <c r="B23" t="n">
-        <v>1118.0</v>
+        <v>273.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2575.0</v>
+        <v>363.0</v>
       </c>
       <c r="B24" t="n">
-        <v>1106.0</v>
+        <v>308.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2631.0</v>
+        <v>416.0</v>
       </c>
       <c r="B25" t="n">
-        <v>1176.0</v>
+        <v>350.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2599.0</v>
+        <v>484.0</v>
       </c>
       <c r="B26" t="n">
-        <v>1078.0</v>
+        <v>402.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>80.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2630.0</v>
+        <v>542.0</v>
       </c>
       <c r="B27" t="n">
-        <v>1098.0</v>
+        <v>437.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>103.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2465.0</v>
+        <v>632.0</v>
       </c>
       <c r="B28" t="n">
-        <v>1103.0</v>
+        <v>505.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>125.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2549.0</v>
+        <v>730.0</v>
       </c>
       <c r="B29" t="n">
-        <v>1096.0</v>
+        <v>585.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>143.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2542.0</v>
+        <v>799.0</v>
       </c>
       <c r="B30" t="n">
-        <v>1155.0</v>
+        <v>625.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>172.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2453.0</v>
+        <v>879.0</v>
       </c>
       <c r="B31" t="n">
-        <v>1058.0</v>
+        <v>666.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>209.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3211.0</v>
+        <v>959.0</v>
       </c>
       <c r="B32" t="n">
-        <v>1081.0</v>
+        <v>707.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>247.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3284.0</v>
+        <v>1060.0</v>
       </c>
       <c r="B33" t="n">
-        <v>1041.0</v>
+        <v>765.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>289.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3019.0</v>
+        <v>1189.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1101.0</v>
+        <v>851.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>331.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3208.0</v>
+        <v>1294.0</v>
       </c>
       <c r="B35" t="n">
-        <v>1352.0</v>
+        <v>908.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>379.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4297.0</v>
+        <v>1397.0</v>
       </c>
       <c r="B36" t="n">
-        <v>1359.0</v>
+        <v>957.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>432.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4080.0</v>
+        <v>1506.0</v>
       </c>
       <c r="B37" t="n">
-        <v>1318.0</v>
+        <v>1007.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>490.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4674.0</v>
+        <v>1634.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1554.0</v>
+        <v>1073.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>551.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5290.0</v>
+        <v>1788.0</v>
       </c>
       <c r="B39" t="n">
-        <v>1735.0</v>
+        <v>1165.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>612.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5821.0</v>
+        <v>1917.0</v>
       </c>
       <c r="B40" t="n">
-        <v>1929.0</v>
+        <v>1225.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>680.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5369.0</v>
+        <v>2062.0</v>
       </c>
       <c r="B41" t="n">
-        <v>2062.0</v>
+        <v>1304.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>745.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4936.0</v>
+        <v>2217.0</v>
       </c>
       <c r="B42" t="n">
-        <v>2339.0</v>
+        <v>1382.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>820.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>7174.0</v>
+        <v>2384.0</v>
       </c>
       <c r="B43" t="n">
-        <v>2459.0</v>
+        <v>1454.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>910.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6642.0</v>
+        <v>2557.0</v>
       </c>
       <c r="B44" t="n">
-        <v>2416.0</v>
+        <v>1544.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>993.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>7167.0</v>
+        <v>2730.0</v>
       </c>
       <c r="B45" t="n">
-        <v>2667.0</v>
+        <v>1618.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1089.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7975.0</v>
+        <v>2932.0</v>
       </c>
       <c r="B46" t="n">
-        <v>2904.0</v>
+        <v>1714.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1195.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8485.0</v>
+        <v>3154.0</v>
       </c>
       <c r="B47" t="n">
-        <v>3035.0</v>
+        <v>1833.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1295.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7761.0</v>
+        <v>3439.0</v>
       </c>
       <c r="B48" t="n">
-        <v>3256.0</v>
+        <v>2011.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>285.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1400.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>7124.0</v>
+        <v>3651.0</v>
       </c>
       <c r="B49" t="n">
-        <v>3538.0</v>
+        <v>2089.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>212.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1530.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10081.0</v>
+        <v>3965.0</v>
       </c>
       <c r="B50" t="n">
-        <v>3585.0</v>
+        <v>2281.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>314.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1648.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>9143.0</v>
+        <v>4293.0</v>
       </c>
       <c r="B51" t="n">
-        <v>3555.0</v>
+        <v>2476.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>328.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1780.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9689.0</v>
+        <v>4667.0</v>
       </c>
       <c r="B52" t="n">
-        <v>3727.0</v>
+        <v>2715.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>374.0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1914.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10580.0</v>
+        <v>5024.0</v>
       </c>
       <c r="B53" t="n">
-        <v>4057.0</v>
+        <v>2900.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>357.0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2082.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>11256.0</v>
+        <v>5412.0</v>
       </c>
       <c r="B54" t="n">
-        <v>4243.0</v>
+        <v>3129.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>388.0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2239.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9993.0</v>
+        <v>5841.0</v>
       </c>
       <c r="B55" t="n">
-        <v>4343.0</v>
+        <v>3370.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>429.0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2427.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9219.0</v>
+        <v>6260.0</v>
       </c>
       <c r="B56" t="n">
-        <v>4772.0</v>
+        <v>3624.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>419.0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2592.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>13083.0</v>
+        <v>6752.0</v>
       </c>
       <c r="B57" t="n">
-        <v>5062.0</v>
+        <v>3904.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>492.0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2798.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>11209.0</v>
+        <v>7258.0</v>
       </c>
       <c r="B58" t="n">
-        <v>4564.0</v>
+        <v>4190.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>506.0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3014.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>12250.0</v>
+        <v>7813.0</v>
       </c>
       <c r="B59" t="n">
-        <v>4848.0</v>
+        <v>4499.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>555.0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3251.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>13126.0</v>
+        <v>8426.0</v>
       </c>
       <c r="B60" t="n">
-        <v>5332.0</v>
+        <v>4884.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>613.0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3476.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>13671.0</v>
+        <v>9072.0</v>
       </c>
       <c r="B61" t="n">
-        <v>5260.0</v>
+        <v>5245.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>646.0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3758.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>12159.0</v>
+        <v>9801.0</v>
       </c>
       <c r="B62" t="n">
-        <v>5407.0</v>
+        <v>5684.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>729.0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4045.0</v>
       </c>
     </row>
     <row r="63">

--- a/src/output/results3.xlsx
+++ b/src/output/results3.xlsx
@@ -346,13 +346,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.0</v>
+        <v>83.0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.0</v>
+        <v>83.0</v>
       </c>
       <c r="C1" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D1" t="n">
         <v>0.0</v>
@@ -363,13 +363,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0</v>
+        <v>85.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0</v>
+        <v>85.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
@@ -380,13 +380,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0</v>
+        <v>89.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0</v>
+        <v>89.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -397,13 +397,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.0</v>
+        <v>100.0</v>
       </c>
       <c r="B4" t="n">
-        <v>2.0</v>
+        <v>100.0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
@@ -414,13 +414,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.0</v>
+        <v>110.0</v>
       </c>
       <c r="B5" t="n">
-        <v>3.0</v>
+        <v>110.0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
@@ -431,971 +431,971 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="C6" t="n">
         <v>4.0</v>
       </c>
-      <c r="B6" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
         <v>1.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9.0</v>
+        <v>124.0</v>
       </c>
       <c r="B7" t="n">
-        <v>9.0</v>
+        <v>123.0</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12.0</v>
+        <v>133.0</v>
       </c>
       <c r="B8" t="n">
-        <v>12.0</v>
+        <v>132.0</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>18.0</v>
+        <v>146.0</v>
       </c>
       <c r="B9" t="n">
-        <v>18.0</v>
+        <v>145.0</v>
       </c>
       <c r="C9" t="n">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>28.0</v>
+        <v>151.0</v>
       </c>
       <c r="B10" t="n">
-        <v>28.0</v>
+        <v>149.0</v>
       </c>
       <c r="C10" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>40.0</v>
+        <v>164.0</v>
       </c>
       <c r="B11" t="n">
-        <v>40.0</v>
+        <v>160.0</v>
       </c>
       <c r="C11" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>50.0</v>
+        <v>182.0</v>
       </c>
       <c r="B12" t="n">
-        <v>50.0</v>
+        <v>177.0</v>
       </c>
       <c r="C12" t="n">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>61.0</v>
+        <v>197.0</v>
       </c>
       <c r="B13" t="n">
-        <v>61.0</v>
+        <v>191.0</v>
       </c>
       <c r="C13" t="n">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="D13" t="n">
         <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>76.0</v>
+        <v>222.0</v>
       </c>
       <c r="B14" t="n">
-        <v>76.0</v>
+        <v>213.0</v>
       </c>
       <c r="C14" t="n">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
       <c r="D14" t="n">
         <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>95.0</v>
+        <v>240.0</v>
       </c>
       <c r="B15" t="n">
-        <v>91.0</v>
+        <v>228.0</v>
       </c>
       <c r="C15" t="n">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="D15" t="n">
         <v>0.0</v>
       </c>
       <c r="E15" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112.0</v>
+        <v>265.0</v>
       </c>
       <c r="B16" t="n">
-        <v>103.0</v>
+        <v>247.0</v>
       </c>
       <c r="C16" t="n">
-        <v>17.0</v>
+        <v>25.0</v>
       </c>
       <c r="D16" t="n">
         <v>0.0</v>
       </c>
       <c r="E16" t="n">
-        <v>9.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130.0</v>
+        <v>297.0</v>
       </c>
       <c r="B17" t="n">
-        <v>118.0</v>
+        <v>274.0</v>
       </c>
       <c r="C17" t="n">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
       <c r="D17" t="n">
         <v>0.0</v>
       </c>
       <c r="E17" t="n">
-        <v>12.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>153.0</v>
+        <v>349.0</v>
       </c>
       <c r="B18" t="n">
-        <v>141.0</v>
+        <v>321.0</v>
       </c>
       <c r="C18" t="n">
-        <v>23.0</v>
+        <v>52.0</v>
       </c>
       <c r="D18" t="n">
         <v>0.0</v>
       </c>
       <c r="E18" t="n">
-        <v>12.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>177.0</v>
+        <v>382.0</v>
       </c>
       <c r="B19" t="n">
-        <v>161.0</v>
+        <v>346.0</v>
       </c>
       <c r="C19" t="n">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E19" t="n">
-        <v>16.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>201.0</v>
+        <v>427.0</v>
       </c>
       <c r="B20" t="n">
-        <v>179.0</v>
+        <v>380.0</v>
       </c>
       <c r="C20" t="n">
-        <v>24.0</v>
+        <v>45.0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E20" t="n">
-        <v>22.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>243.0</v>
+        <v>477.0</v>
       </c>
       <c r="B21" t="n">
-        <v>212.0</v>
+        <v>423.0</v>
       </c>
       <c r="C21" t="n">
-        <v>42.0</v>
+        <v>50.0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E21" t="n">
-        <v>31.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>286.0</v>
+        <v>542.0</v>
       </c>
       <c r="B22" t="n">
-        <v>247.0</v>
+        <v>480.0</v>
       </c>
       <c r="C22" t="n">
-        <v>43.0</v>
+        <v>65.0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E22" t="n">
-        <v>39.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>337.0</v>
+        <v>589.0</v>
       </c>
       <c r="B23" t="n">
-        <v>289.0</v>
+        <v>507.0</v>
       </c>
       <c r="C23" t="n">
-        <v>51.0</v>
+        <v>47.0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E23" t="n">
-        <v>48.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>377.0</v>
+        <v>646.0</v>
       </c>
       <c r="B24" t="n">
-        <v>316.0</v>
+        <v>550.0</v>
       </c>
       <c r="C24" t="n">
-        <v>40.0</v>
+        <v>57.0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E24" t="n">
-        <v>61.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>427.0</v>
+        <v>720.0</v>
       </c>
       <c r="B25" t="n">
-        <v>353.0</v>
+        <v>605.0</v>
       </c>
       <c r="C25" t="n">
-        <v>50.0</v>
+        <v>74.0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E25" t="n">
-        <v>73.0</v>
+        <v>111.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>479.0</v>
+        <v>785.0</v>
       </c>
       <c r="B26" t="n">
-        <v>392.0</v>
+        <v>649.0</v>
       </c>
       <c r="C26" t="n">
-        <v>52.0</v>
+        <v>65.0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E26" t="n">
-        <v>86.0</v>
+        <v>132.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>541.0</v>
+        <v>857.0</v>
       </c>
       <c r="B27" t="n">
-        <v>434.0</v>
+        <v>693.0</v>
       </c>
       <c r="C27" t="n">
-        <v>62.0</v>
+        <v>72.0</v>
       </c>
       <c r="D27" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E27" t="n">
-        <v>106.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>610.0</v>
+        <v>929.0</v>
       </c>
       <c r="B28" t="n">
-        <v>481.0</v>
+        <v>749.0</v>
       </c>
       <c r="C28" t="n">
-        <v>69.0</v>
+        <v>72.0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E28" t="n">
-        <v>128.0</v>
+        <v>176.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>704.0</v>
+        <v>1015.0</v>
       </c>
       <c r="B29" t="n">
-        <v>543.0</v>
+        <v>802.0</v>
       </c>
       <c r="C29" t="n">
-        <v>94.0</v>
+        <v>86.0</v>
       </c>
       <c r="D29" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E29" t="n">
-        <v>159.0</v>
+        <v>208.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>772.0</v>
+        <v>1093.0</v>
       </c>
       <c r="B30" t="n">
-        <v>582.0</v>
+        <v>853.0</v>
       </c>
       <c r="C30" t="n">
-        <v>68.0</v>
+        <v>78.0</v>
       </c>
       <c r="D30" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E30" t="n">
-        <v>188.0</v>
+        <v>234.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>855.0</v>
+        <v>1180.0</v>
       </c>
       <c r="B31" t="n">
-        <v>633.0</v>
+        <v>902.0</v>
       </c>
       <c r="C31" t="n">
-        <v>83.0</v>
+        <v>87.0</v>
       </c>
       <c r="D31" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="E31" t="n">
-        <v>220.0</v>
+        <v>271.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>958.0</v>
+        <v>1250.0</v>
       </c>
       <c r="B32" t="n">
-        <v>703.0</v>
+        <v>939.0</v>
       </c>
       <c r="C32" t="n">
-        <v>103.0</v>
+        <v>70.0</v>
       </c>
       <c r="D32" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="E32" t="n">
-        <v>253.0</v>
+        <v>303.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1072.0</v>
+        <v>1324.0</v>
       </c>
       <c r="B33" t="n">
-        <v>787.0</v>
+        <v>956.0</v>
       </c>
       <c r="C33" t="n">
-        <v>114.0</v>
+        <v>74.0</v>
       </c>
       <c r="D33" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="E33" t="n">
-        <v>282.0</v>
+        <v>358.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1189.0</v>
+        <v>1416.0</v>
       </c>
       <c r="B34" t="n">
-        <v>865.0</v>
+        <v>995.0</v>
       </c>
       <c r="C34" t="n">
-        <v>117.0</v>
+        <v>92.0</v>
       </c>
       <c r="D34" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="E34" t="n">
-        <v>320.0</v>
+        <v>411.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1348.0</v>
+        <v>1525.0</v>
       </c>
       <c r="B35" t="n">
-        <v>990.0</v>
+        <v>1035.0</v>
       </c>
       <c r="C35" t="n">
-        <v>159.0</v>
+        <v>109.0</v>
       </c>
       <c r="D35" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="E35" t="n">
-        <v>354.0</v>
+        <v>479.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1506.0</v>
+        <v>1623.0</v>
       </c>
       <c r="B36" t="n">
-        <v>1100.0</v>
+        <v>1083.0</v>
       </c>
       <c r="C36" t="n">
-        <v>158.0</v>
+        <v>98.0</v>
       </c>
       <c r="D36" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="E36" t="n">
-        <v>402.0</v>
+        <v>526.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1663.0</v>
+        <v>1728.0</v>
       </c>
       <c r="B37" t="n">
-        <v>1204.0</v>
+        <v>1122.0</v>
       </c>
       <c r="C37" t="n">
-        <v>157.0</v>
+        <v>105.0</v>
       </c>
       <c r="D37" t="n">
-        <v>4.0</v>
+        <v>16.0</v>
       </c>
       <c r="E37" t="n">
-        <v>455.0</v>
+        <v>590.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1847.0</v>
+        <v>1856.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1335.0</v>
+        <v>1199.0</v>
       </c>
       <c r="C38" t="n">
-        <v>184.0</v>
+        <v>128.0</v>
       </c>
       <c r="D38" t="n">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
       <c r="E38" t="n">
-        <v>508.0</v>
+        <v>640.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2103.0</v>
+        <v>1980.0</v>
       </c>
       <c r="B39" t="n">
-        <v>1526.0</v>
+        <v>1241.0</v>
       </c>
       <c r="C39" t="n">
-        <v>256.0</v>
+        <v>124.0</v>
       </c>
       <c r="D39" t="n">
-        <v>4.0</v>
+        <v>21.0</v>
       </c>
       <c r="E39" t="n">
-        <v>573.0</v>
+        <v>718.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2370.0</v>
+        <v>2112.0</v>
       </c>
       <c r="B40" t="n">
-        <v>1720.0</v>
+        <v>1300.0</v>
       </c>
       <c r="C40" t="n">
-        <v>267.0</v>
+        <v>132.0</v>
       </c>
       <c r="D40" t="n">
-        <v>7.0</v>
+        <v>22.0</v>
       </c>
       <c r="E40" t="n">
-        <v>643.0</v>
+        <v>790.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2709.0</v>
+        <v>2302.0</v>
       </c>
       <c r="B41" t="n">
-        <v>1978.0</v>
+        <v>1422.0</v>
       </c>
       <c r="C41" t="n">
-        <v>339.0</v>
+        <v>190.0</v>
       </c>
       <c r="D41" t="n">
-        <v>7.0</v>
+        <v>23.0</v>
       </c>
       <c r="E41" t="n">
-        <v>724.0</v>
+        <v>857.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3085.0</v>
+        <v>2490.0</v>
       </c>
       <c r="B42" t="n">
-        <v>2263.0</v>
+        <v>1532.0</v>
       </c>
       <c r="C42" t="n">
-        <v>376.0</v>
+        <v>188.0</v>
       </c>
       <c r="D42" t="n">
-        <v>7.0</v>
+        <v>25.0</v>
       </c>
       <c r="E42" t="n">
-        <v>815.0</v>
+        <v>933.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3507.0</v>
+        <v>2669.0</v>
       </c>
       <c r="B43" t="n">
-        <v>2579.0</v>
+        <v>1632.0</v>
       </c>
       <c r="C43" t="n">
-        <v>422.0</v>
+        <v>179.0</v>
       </c>
       <c r="D43" t="n">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
       <c r="E43" t="n">
-        <v>919.0</v>
+        <v>1011.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3966.0</v>
+        <v>2870.0</v>
       </c>
       <c r="B44" t="n">
-        <v>2923.0</v>
+        <v>1757.0</v>
       </c>
       <c r="C44" t="n">
-        <v>459.0</v>
+        <v>201.0</v>
       </c>
       <c r="D44" t="n">
-        <v>10.0</v>
+        <v>29.0</v>
       </c>
       <c r="E44" t="n">
-        <v>1033.0</v>
+        <v>1084.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4481.0</v>
+        <v>3102.0</v>
       </c>
       <c r="B45" t="n">
-        <v>3280.0</v>
+        <v>1913.0</v>
       </c>
       <c r="C45" t="n">
-        <v>515.0</v>
+        <v>232.0</v>
       </c>
       <c r="D45" t="n">
-        <v>12.0</v>
+        <v>31.0</v>
       </c>
       <c r="E45" t="n">
-        <v>1189.0</v>
+        <v>1158.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5058.0</v>
+        <v>3359.0</v>
       </c>
       <c r="B46" t="n">
-        <v>3720.0</v>
+        <v>2083.0</v>
       </c>
       <c r="C46" t="n">
-        <v>577.0</v>
+        <v>257.0</v>
       </c>
       <c r="D46" t="n">
-        <v>14.0</v>
+        <v>32.0</v>
       </c>
       <c r="E46" t="n">
-        <v>1324.0</v>
+        <v>1244.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5717.0</v>
+        <v>3636.0</v>
       </c>
       <c r="B47" t="n">
-        <v>4203.0</v>
+        <v>2273.0</v>
       </c>
       <c r="C47" t="n">
-        <v>659.0</v>
+        <v>277.0</v>
       </c>
       <c r="D47" t="n">
-        <v>16.0</v>
+        <v>33.0</v>
       </c>
       <c r="E47" t="n">
-        <v>1498.0</v>
+        <v>1330.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6439.0</v>
+        <v>3934.0</v>
       </c>
       <c r="B48" t="n">
-        <v>4741.0</v>
+        <v>2467.0</v>
       </c>
       <c r="C48" t="n">
-        <v>722.0</v>
+        <v>298.0</v>
       </c>
       <c r="D48" t="n">
-        <v>17.0</v>
+        <v>36.0</v>
       </c>
       <c r="E48" t="n">
-        <v>1681.0</v>
+        <v>1431.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>7234.0</v>
+        <v>4302.0</v>
       </c>
       <c r="B49" t="n">
-        <v>5320.0</v>
+        <v>2724.0</v>
       </c>
       <c r="C49" t="n">
-        <v>795.0</v>
+        <v>368.0</v>
       </c>
       <c r="D49" t="n">
-        <v>20.0</v>
+        <v>38.0</v>
       </c>
       <c r="E49" t="n">
-        <v>1894.0</v>
+        <v>1540.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>8135.0</v>
+        <v>4675.0</v>
       </c>
       <c r="B50" t="n">
-        <v>6003.0</v>
+        <v>2991.0</v>
       </c>
       <c r="C50" t="n">
-        <v>901.0</v>
+        <v>373.0</v>
       </c>
       <c r="D50" t="n">
-        <v>23.0</v>
+        <v>38.0</v>
       </c>
       <c r="E50" t="n">
-        <v>2109.0</v>
+        <v>1646.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>9102.0</v>
+        <v>5093.0</v>
       </c>
       <c r="B51" t="n">
-        <v>6686.0</v>
+        <v>3294.0</v>
       </c>
       <c r="C51" t="n">
-        <v>967.0</v>
+        <v>418.0</v>
       </c>
       <c r="D51" t="n">
-        <v>26.0</v>
+        <v>40.0</v>
       </c>
       <c r="E51" t="n">
-        <v>2390.0</v>
+        <v>1759.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>10236.0</v>
+        <v>5571.0</v>
       </c>
       <c r="B52" t="n">
-        <v>7529.0</v>
+        <v>3614.0</v>
       </c>
       <c r="C52" t="n">
-        <v>1134.0</v>
+        <v>478.0</v>
       </c>
       <c r="D52" t="n">
-        <v>30.0</v>
+        <v>42.0</v>
       </c>
       <c r="E52" t="n">
-        <v>2677.0</v>
+        <v>1915.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>11331.0</v>
+        <v>6090.0</v>
       </c>
       <c r="B53" t="n">
-        <v>8249.0</v>
+        <v>3937.0</v>
       </c>
       <c r="C53" t="n">
-        <v>1095.0</v>
+        <v>519.0</v>
       </c>
       <c r="D53" t="n">
-        <v>33.0</v>
+        <v>45.0</v>
       </c>
       <c r="E53" t="n">
-        <v>3049.0</v>
+        <v>2108.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>12546.0</v>
+        <v>6640.0</v>
       </c>
       <c r="B54" t="n">
-        <v>9078.0</v>
+        <v>4285.0</v>
       </c>
       <c r="C54" t="n">
-        <v>1215.0</v>
+        <v>550.0</v>
       </c>
       <c r="D54" t="n">
-        <v>37.0</v>
+        <v>48.0</v>
       </c>
       <c r="E54" t="n">
-        <v>3431.0</v>
+        <v>2307.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>13847.0</v>
+        <v>7243.0</v>
       </c>
       <c r="B55" t="n">
-        <v>9920.0</v>
+        <v>4693.0</v>
       </c>
       <c r="C55" t="n">
-        <v>1301.0</v>
+        <v>603.0</v>
       </c>
       <c r="D55" t="n">
-        <v>45.0</v>
+        <v>50.0</v>
       </c>
       <c r="E55" t="n">
-        <v>3882.0</v>
+        <v>2500.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>15182.0</v>
+        <v>7837.0</v>
       </c>
       <c r="B56" t="n">
-        <v>10743.0</v>
+        <v>5086.0</v>
       </c>
       <c r="C56" t="n">
-        <v>1335.0</v>
+        <v>594.0</v>
       </c>
       <c r="D56" t="n">
-        <v>55.0</v>
+        <v>53.0</v>
       </c>
       <c r="E56" t="n">
-        <v>4384.0</v>
+        <v>2698.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>16683.0</v>
+        <v>8486.0</v>
       </c>
       <c r="B57" t="n">
-        <v>11676.0</v>
+        <v>5496.0</v>
       </c>
       <c r="C57" t="n">
-        <v>1501.0</v>
+        <v>649.0</v>
       </c>
       <c r="D57" t="n">
-        <v>67.0</v>
+        <v>58.0</v>
       </c>
       <c r="E57" t="n">
-        <v>4940.0</v>
+        <v>2932.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>18281.0</v>
+        <v>9193.0</v>
       </c>
       <c r="B58" t="n">
-        <v>12692.0</v>
+        <v>5968.0</v>
       </c>
       <c r="C58" t="n">
-        <v>1598.0</v>
+        <v>707.0</v>
       </c>
       <c r="D58" t="n">
-        <v>75.0</v>
+        <v>62.0</v>
       </c>
       <c r="E58" t="n">
-        <v>5514.0</v>
+        <v>3163.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>19911.0</v>
+        <v>9881.0</v>
       </c>
       <c r="B59" t="n">
-        <v>13674.0</v>
+        <v>6385.0</v>
       </c>
       <c r="C59" t="n">
-        <v>1630.0</v>
+        <v>688.0</v>
       </c>
       <c r="D59" t="n">
-        <v>94.0</v>
+        <v>71.0</v>
       </c>
       <c r="E59" t="n">
-        <v>6143.0</v>
+        <v>3425.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>21762.0</v>
+        <v>10672.0</v>
       </c>
       <c r="B60" t="n">
-        <v>14819.0</v>
+        <v>6891.0</v>
       </c>
       <c r="C60" t="n">
-        <v>1851.0</v>
+        <v>791.0</v>
       </c>
       <c r="D60" t="n">
-        <v>103.0</v>
+        <v>79.0</v>
       </c>
       <c r="E60" t="n">
-        <v>6840.0</v>
+        <v>3702.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>23752.0</v>
+        <v>11499.0</v>
       </c>
       <c r="B61" t="n">
-        <v>15984.0</v>
+        <v>7375.0</v>
       </c>
       <c r="C61" t="n">
-        <v>1990.0</v>
+        <v>827.0</v>
       </c>
       <c r="D61" t="n">
-        <v>117.0</v>
+        <v>89.0</v>
       </c>
       <c r="E61" t="n">
-        <v>7651.0</v>
+        <v>4035.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>25852.0</v>
+        <v>12370.0</v>
       </c>
       <c r="B62" t="n">
-        <v>17163.0</v>
+        <v>7894.0</v>
       </c>
       <c r="C62" t="n">
-        <v>2100.0</v>
+        <v>871.0</v>
       </c>
       <c r="D62" t="n">
-        <v>127.0</v>
+        <v>95.0</v>
       </c>
       <c r="E62" t="n">
-        <v>8562.0</v>
+        <v>4381.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/output/results3.xlsx
+++ b/src/output/results3.xlsx
@@ -336,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="G60" sqref="G60"/>
@@ -346,13 +346,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>83.0</v>
+        <v>306.0</v>
       </c>
       <c r="B1" t="n">
-        <v>83.0</v>
+        <v>306.0</v>
       </c>
       <c r="C1" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="D1" t="n">
         <v>0.0</v>
@@ -363,13 +363,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>85.0</v>
+        <v>314.0</v>
       </c>
       <c r="B2" t="n">
-        <v>85.0</v>
+        <v>314.0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
@@ -380,13 +380,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>89.0</v>
+        <v>330.0</v>
       </c>
       <c r="B3" t="n">
-        <v>89.0</v>
+        <v>330.0</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>16.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -397,1005 +397,2314 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>100.0</v>
+        <v>353.0</v>
       </c>
       <c r="B4" t="n">
-        <v>100.0</v>
+        <v>352.0</v>
       </c>
       <c r="C4" t="n">
-        <v>11.0</v>
+        <v>23.0</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>110.0</v>
+        <v>380.0</v>
       </c>
       <c r="B5" t="n">
-        <v>110.0</v>
+        <v>379.0</v>
       </c>
       <c r="C5" t="n">
-        <v>10.0</v>
+        <v>27.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>114.0</v>
+        <v>409.0</v>
       </c>
       <c r="B6" t="n">
-        <v>113.0</v>
+        <v>407.0</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>29.0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
       </c>
       <c r="E6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>124.0</v>
+        <v>439.0</v>
       </c>
       <c r="B7" t="n">
-        <v>123.0</v>
+        <v>436.0</v>
       </c>
       <c r="C7" t="n">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0</v>
       </c>
       <c r="E7" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>133.0</v>
+        <v>483.0</v>
       </c>
       <c r="B8" t="n">
-        <v>132.0</v>
+        <v>479.0</v>
       </c>
       <c r="C8" t="n">
-        <v>9.0</v>
+        <v>44.0</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>146.0</v>
+        <v>521.0</v>
       </c>
       <c r="B9" t="n">
-        <v>145.0</v>
+        <v>517.0</v>
       </c>
       <c r="C9" t="n">
-        <v>13.0</v>
+        <v>38.0</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>151.0</v>
+        <v>558.0</v>
       </c>
       <c r="B10" t="n">
-        <v>149.0</v>
+        <v>551.0</v>
       </c>
       <c r="C10" t="n">
-        <v>5.0</v>
+        <v>37.0</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>164.0</v>
+        <v>600.0</v>
       </c>
       <c r="B11" t="n">
-        <v>160.0</v>
+        <v>592.0</v>
       </c>
       <c r="C11" t="n">
-        <v>13.0</v>
+        <v>42.0</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
       </c>
       <c r="E11" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>182.0</v>
+        <v>636.0</v>
       </c>
       <c r="B12" t="n">
-        <v>177.0</v>
+        <v>624.0</v>
       </c>
       <c r="C12" t="n">
-        <v>18.0</v>
+        <v>36.0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>197.0</v>
+        <v>683.0</v>
       </c>
       <c r="B13" t="n">
-        <v>191.0</v>
+        <v>659.0</v>
       </c>
       <c r="C13" t="n">
-        <v>15.0</v>
+        <v>47.0</v>
       </c>
       <c r="D13" t="n">
         <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>6.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>222.0</v>
+        <v>720.0</v>
       </c>
       <c r="B14" t="n">
-        <v>213.0</v>
+        <v>685.0</v>
       </c>
       <c r="C14" t="n">
-        <v>25.0</v>
+        <v>37.0</v>
       </c>
       <c r="D14" t="n">
         <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>9.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>240.0</v>
+        <v>762.0</v>
       </c>
       <c r="B15" t="n">
-        <v>228.0</v>
+        <v>718.0</v>
       </c>
       <c r="C15" t="n">
-        <v>18.0</v>
+        <v>42.0</v>
       </c>
       <c r="D15" t="n">
         <v>0.0</v>
       </c>
       <c r="E15" t="n">
-        <v>12.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>265.0</v>
+        <v>804.0</v>
       </c>
       <c r="B16" t="n">
-        <v>247.0</v>
+        <v>736.0</v>
       </c>
       <c r="C16" t="n">
-        <v>25.0</v>
+        <v>42.0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>297.0</v>
+        <v>890.0</v>
       </c>
       <c r="B17" t="n">
-        <v>274.0</v>
+        <v>806.0</v>
       </c>
       <c r="C17" t="n">
-        <v>32.0</v>
+        <v>86.0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E17" t="n">
-        <v>23.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>349.0</v>
+        <v>945.0</v>
       </c>
       <c r="B18" t="n">
-        <v>321.0</v>
+        <v>846.0</v>
       </c>
       <c r="C18" t="n">
-        <v>52.0</v>
+        <v>55.0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E18" t="n">
-        <v>28.0</v>
+        <v>97.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>382.0</v>
+        <v>1013.0</v>
       </c>
       <c r="B19" t="n">
-        <v>346.0</v>
+        <v>888.0</v>
       </c>
       <c r="C19" t="n">
-        <v>33.0</v>
+        <v>68.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E19" t="n">
-        <v>35.0</v>
+        <v>123.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>427.0</v>
+        <v>1097.0</v>
       </c>
       <c r="B20" t="n">
-        <v>380.0</v>
+        <v>939.0</v>
       </c>
       <c r="C20" t="n">
-        <v>45.0</v>
+        <v>84.0</v>
       </c>
       <c r="D20" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E20" t="n">
-        <v>45.0</v>
+        <v>155.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>477.0</v>
+        <v>1179.0</v>
       </c>
       <c r="B21" t="n">
-        <v>423.0</v>
+        <v>990.0</v>
       </c>
       <c r="C21" t="n">
-        <v>50.0</v>
+        <v>82.0</v>
       </c>
       <c r="D21" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E21" t="n">
-        <v>52.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>542.0</v>
+        <v>1293.0</v>
       </c>
       <c r="B22" t="n">
-        <v>480.0</v>
+        <v>1075.0</v>
       </c>
       <c r="C22" t="n">
-        <v>65.0</v>
+        <v>114.0</v>
       </c>
       <c r="D22" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E22" t="n">
-        <v>60.0</v>
+        <v>214.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>589.0</v>
+        <v>1390.0</v>
       </c>
       <c r="B23" t="n">
-        <v>507.0</v>
+        <v>1132.0</v>
       </c>
       <c r="C23" t="n">
-        <v>47.0</v>
+        <v>97.0</v>
       </c>
       <c r="D23" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E23" t="n">
-        <v>79.0</v>
+        <v>252.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>646.0</v>
+        <v>1479.0</v>
       </c>
       <c r="B24" t="n">
-        <v>550.0</v>
+        <v>1184.0</v>
       </c>
       <c r="C24" t="n">
-        <v>57.0</v>
+        <v>89.0</v>
       </c>
       <c r="D24" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="E24" t="n">
-        <v>93.0</v>
+        <v>288.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>720.0</v>
+        <v>1577.0</v>
       </c>
       <c r="B25" t="n">
-        <v>605.0</v>
+        <v>1253.0</v>
       </c>
       <c r="C25" t="n">
-        <v>74.0</v>
+        <v>98.0</v>
       </c>
       <c r="D25" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E25" t="n">
-        <v>111.0</v>
+        <v>316.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>785.0</v>
+        <v>1685.0</v>
       </c>
       <c r="B26" t="n">
-        <v>649.0</v>
+        <v>1311.0</v>
       </c>
       <c r="C26" t="n">
-        <v>65.0</v>
+        <v>108.0</v>
       </c>
       <c r="D26" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E26" t="n">
-        <v>132.0</v>
+        <v>366.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>857.0</v>
+        <v>1803.0</v>
       </c>
       <c r="B27" t="n">
-        <v>693.0</v>
+        <v>1376.0</v>
       </c>
       <c r="C27" t="n">
-        <v>72.0</v>
+        <v>118.0</v>
       </c>
       <c r="D27" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="E27" t="n">
-        <v>160.0</v>
+        <v>417.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>929.0</v>
+        <v>1913.0</v>
       </c>
       <c r="B28" t="n">
-        <v>749.0</v>
+        <v>1439.0</v>
       </c>
       <c r="C28" t="n">
-        <v>72.0</v>
+        <v>110.0</v>
       </c>
       <c r="D28" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="E28" t="n">
-        <v>176.0</v>
+        <v>462.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1015.0</v>
+        <v>2010.0</v>
       </c>
       <c r="B29" t="n">
-        <v>802.0</v>
+        <v>1484.0</v>
       </c>
       <c r="C29" t="n">
-        <v>86.0</v>
+        <v>97.0</v>
       </c>
       <c r="D29" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="E29" t="n">
-        <v>208.0</v>
+        <v>512.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1093.0</v>
+        <v>2110.0</v>
       </c>
       <c r="B30" t="n">
-        <v>853.0</v>
+        <v>1523.0</v>
       </c>
       <c r="C30" t="n">
-        <v>78.0</v>
+        <v>100.0</v>
       </c>
       <c r="D30" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="E30" t="n">
-        <v>234.0</v>
+        <v>573.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1180.0</v>
+        <v>2219.0</v>
       </c>
       <c r="B31" t="n">
-        <v>902.0</v>
+        <v>1567.0</v>
       </c>
       <c r="C31" t="n">
-        <v>87.0</v>
+        <v>109.0</v>
       </c>
       <c r="D31" t="n">
-        <v>7.0</v>
+        <v>16.0</v>
       </c>
       <c r="E31" t="n">
-        <v>271.0</v>
+        <v>636.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1250.0</v>
+        <v>2342.0</v>
       </c>
       <c r="B32" t="n">
-        <v>939.0</v>
+        <v>1598.0</v>
       </c>
       <c r="C32" t="n">
-        <v>70.0</v>
+        <v>123.0</v>
       </c>
       <c r="D32" t="n">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
       <c r="E32" t="n">
-        <v>303.0</v>
+        <v>727.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1324.0</v>
+        <v>2485.0</v>
       </c>
       <c r="B33" t="n">
-        <v>956.0</v>
+        <v>1657.0</v>
       </c>
       <c r="C33" t="n">
-        <v>74.0</v>
+        <v>143.0</v>
       </c>
       <c r="D33" t="n">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="E33" t="n">
-        <v>358.0</v>
+        <v>811.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1416.0</v>
+        <v>2607.0</v>
       </c>
       <c r="B34" t="n">
-        <v>995.0</v>
+        <v>1694.0</v>
       </c>
       <c r="C34" t="n">
-        <v>92.0</v>
+        <v>122.0</v>
       </c>
       <c r="D34" t="n">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="E34" t="n">
-        <v>411.0</v>
+        <v>895.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1525.0</v>
+        <v>2750.0</v>
       </c>
       <c r="B35" t="n">
-        <v>1035.0</v>
+        <v>1751.0</v>
       </c>
       <c r="C35" t="n">
-        <v>109.0</v>
+        <v>143.0</v>
       </c>
       <c r="D35" t="n">
-        <v>11.0</v>
+        <v>19.0</v>
       </c>
       <c r="E35" t="n">
-        <v>479.0</v>
+        <v>980.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1623.0</v>
+        <v>2894.0</v>
       </c>
       <c r="B36" t="n">
-        <v>1083.0</v>
+        <v>1823.0</v>
       </c>
       <c r="C36" t="n">
-        <v>98.0</v>
+        <v>144.0</v>
       </c>
       <c r="D36" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="E36" t="n">
-        <v>526.0</v>
+        <v>1052.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1728.0</v>
+        <v>3044.0</v>
       </c>
       <c r="B37" t="n">
-        <v>1122.0</v>
+        <v>1878.0</v>
       </c>
       <c r="C37" t="n">
-        <v>105.0</v>
+        <v>150.0</v>
       </c>
       <c r="D37" t="n">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="E37" t="n">
-        <v>590.0</v>
+        <v>1147.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1856.0</v>
+        <v>3246.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1199.0</v>
+        <v>1999.0</v>
       </c>
       <c r="C38" t="n">
-        <v>128.0</v>
+        <v>202.0</v>
       </c>
       <c r="D38" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="E38" t="n">
-        <v>640.0</v>
+        <v>1228.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1980.0</v>
+        <v>3393.0</v>
       </c>
       <c r="B39" t="n">
-        <v>1241.0</v>
+        <v>2053.0</v>
       </c>
       <c r="C39" t="n">
-        <v>124.0</v>
+        <v>147.0</v>
       </c>
       <c r="D39" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="E39" t="n">
-        <v>718.0</v>
+        <v>1320.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2112.0</v>
+        <v>3563.0</v>
       </c>
       <c r="B40" t="n">
-        <v>1300.0</v>
+        <v>2100.0</v>
       </c>
       <c r="C40" t="n">
-        <v>132.0</v>
+        <v>170.0</v>
       </c>
       <c r="D40" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="E40" t="n">
-        <v>790.0</v>
+        <v>1442.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2302.0</v>
+        <v>3766.0</v>
       </c>
       <c r="B41" t="n">
-        <v>1422.0</v>
+        <v>2195.0</v>
       </c>
       <c r="C41" t="n">
-        <v>190.0</v>
+        <v>203.0</v>
       </c>
       <c r="D41" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="E41" t="n">
-        <v>857.0</v>
+        <v>1550.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2490.0</v>
+        <v>3983.0</v>
       </c>
       <c r="B42" t="n">
-        <v>1532.0</v>
+        <v>2300.0</v>
       </c>
       <c r="C42" t="n">
-        <v>188.0</v>
+        <v>217.0</v>
       </c>
       <c r="D42" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="E42" t="n">
-        <v>933.0</v>
+        <v>1661.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2669.0</v>
+        <v>4209.0</v>
       </c>
       <c r="B43" t="n">
-        <v>1632.0</v>
+        <v>2409.0</v>
       </c>
       <c r="C43" t="n">
-        <v>179.0</v>
+        <v>226.0</v>
       </c>
       <c r="D43" t="n">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
       <c r="E43" t="n">
-        <v>1011.0</v>
+        <v>1778.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2870.0</v>
+        <v>4479.0</v>
       </c>
       <c r="B44" t="n">
-        <v>1757.0</v>
+        <v>2564.0</v>
       </c>
       <c r="C44" t="n">
-        <v>201.0</v>
+        <v>270.0</v>
       </c>
       <c r="D44" t="n">
-        <v>29.0</v>
+        <v>24.0</v>
       </c>
       <c r="E44" t="n">
-        <v>1084.0</v>
+        <v>1891.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3102.0</v>
+        <v>4766.0</v>
       </c>
       <c r="B45" t="n">
-        <v>1913.0</v>
+        <v>2722.0</v>
       </c>
       <c r="C45" t="n">
-        <v>232.0</v>
+        <v>287.0</v>
       </c>
       <c r="D45" t="n">
-        <v>31.0</v>
+        <v>26.0</v>
       </c>
       <c r="E45" t="n">
-        <v>1158.0</v>
+        <v>2018.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3359.0</v>
+        <v>5064.0</v>
       </c>
       <c r="B46" t="n">
-        <v>2083.0</v>
+        <v>2885.0</v>
       </c>
       <c r="C46" t="n">
-        <v>257.0</v>
+        <v>298.0</v>
       </c>
       <c r="D46" t="n">
-        <v>32.0</v>
+        <v>27.0</v>
       </c>
       <c r="E46" t="n">
-        <v>1244.0</v>
+        <v>2152.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3636.0</v>
+        <v>5409.0</v>
       </c>
       <c r="B47" t="n">
-        <v>2273.0</v>
+        <v>3115.0</v>
       </c>
       <c r="C47" t="n">
-        <v>277.0</v>
+        <v>345.0</v>
       </c>
       <c r="D47" t="n">
-        <v>33.0</v>
+        <v>29.0</v>
       </c>
       <c r="E47" t="n">
-        <v>1330.0</v>
+        <v>2265.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3934.0</v>
+        <v>5751.0</v>
       </c>
       <c r="B48" t="n">
-        <v>2467.0</v>
+        <v>3307.0</v>
       </c>
       <c r="C48" t="n">
-        <v>298.0</v>
+        <v>342.0</v>
       </c>
       <c r="D48" t="n">
-        <v>36.0</v>
+        <v>31.0</v>
       </c>
       <c r="E48" t="n">
-        <v>1431.0</v>
+        <v>2413.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4302.0</v>
+        <v>6119.0</v>
       </c>
       <c r="B49" t="n">
-        <v>2724.0</v>
+        <v>3533.0</v>
       </c>
       <c r="C49" t="n">
         <v>368.0</v>
       </c>
       <c r="D49" t="n">
-        <v>38.0</v>
+        <v>33.0</v>
       </c>
       <c r="E49" t="n">
-        <v>1540.0</v>
+        <v>2553.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4675.0</v>
+        <v>6547.0</v>
       </c>
       <c r="B50" t="n">
-        <v>2991.0</v>
+        <v>3799.0</v>
       </c>
       <c r="C50" t="n">
-        <v>373.0</v>
+        <v>428.0</v>
       </c>
       <c r="D50" t="n">
-        <v>38.0</v>
+        <v>34.0</v>
       </c>
       <c r="E50" t="n">
-        <v>1646.0</v>
+        <v>2714.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5093.0</v>
+        <v>6973.0</v>
       </c>
       <c r="B51" t="n">
-        <v>3294.0</v>
+        <v>4058.0</v>
       </c>
       <c r="C51" t="n">
-        <v>418.0</v>
+        <v>426.0</v>
       </c>
       <c r="D51" t="n">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="E51" t="n">
-        <v>1759.0</v>
+        <v>2881.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5571.0</v>
+        <v>7397.0</v>
       </c>
       <c r="B52" t="n">
-        <v>3614.0</v>
+        <v>4302.0</v>
       </c>
       <c r="C52" t="n">
-        <v>478.0</v>
+        <v>424.0</v>
       </c>
       <c r="D52" t="n">
-        <v>42.0</v>
+        <v>37.0</v>
       </c>
       <c r="E52" t="n">
-        <v>1915.0</v>
+        <v>3058.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6090.0</v>
+        <v>7899.0</v>
       </c>
       <c r="B53" t="n">
-        <v>3937.0</v>
+        <v>4613.0</v>
       </c>
       <c r="C53" t="n">
-        <v>519.0</v>
+        <v>502.0</v>
       </c>
       <c r="D53" t="n">
-        <v>45.0</v>
+        <v>41.0</v>
       </c>
       <c r="E53" t="n">
-        <v>2108.0</v>
+        <v>3245.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6640.0</v>
+        <v>8461.0</v>
       </c>
       <c r="B54" t="n">
-        <v>4285.0</v>
+        <v>4969.0</v>
       </c>
       <c r="C54" t="n">
-        <v>550.0</v>
+        <v>562.0</v>
       </c>
       <c r="D54" t="n">
-        <v>48.0</v>
+        <v>42.0</v>
       </c>
       <c r="E54" t="n">
-        <v>2307.0</v>
+        <v>3450.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>7243.0</v>
+        <v>9020.0</v>
       </c>
       <c r="B55" t="n">
-        <v>4693.0</v>
+        <v>5302.0</v>
       </c>
       <c r="C55" t="n">
-        <v>603.0</v>
+        <v>559.0</v>
       </c>
       <c r="D55" t="n">
-        <v>50.0</v>
+        <v>43.0</v>
       </c>
       <c r="E55" t="n">
-        <v>2500.0</v>
+        <v>3675.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>7837.0</v>
+        <v>9586.0</v>
       </c>
       <c r="B56" t="n">
-        <v>5086.0</v>
+        <v>5629.0</v>
       </c>
       <c r="C56" t="n">
-        <v>594.0</v>
+        <v>566.0</v>
       </c>
       <c r="D56" t="n">
-        <v>53.0</v>
+        <v>46.0</v>
       </c>
       <c r="E56" t="n">
-        <v>2698.0</v>
+        <v>3911.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>8486.0</v>
+        <v>10182.0</v>
       </c>
       <c r="B57" t="n">
-        <v>5496.0</v>
+        <v>5961.0</v>
       </c>
       <c r="C57" t="n">
-        <v>649.0</v>
+        <v>596.0</v>
       </c>
       <c r="D57" t="n">
-        <v>58.0</v>
+        <v>47.0</v>
       </c>
       <c r="E57" t="n">
-        <v>2932.0</v>
+        <v>4174.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>9193.0</v>
+        <v>10802.0</v>
       </c>
       <c r="B58" t="n">
-        <v>5968.0</v>
+        <v>6278.0</v>
       </c>
       <c r="C58" t="n">
-        <v>707.0</v>
+        <v>620.0</v>
       </c>
       <c r="D58" t="n">
-        <v>62.0</v>
+        <v>52.0</v>
       </c>
       <c r="E58" t="n">
-        <v>3163.0</v>
+        <v>4472.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>9881.0</v>
+        <v>11508.0</v>
       </c>
       <c r="B59" t="n">
-        <v>6385.0</v>
+        <v>6659.0</v>
       </c>
       <c r="C59" t="n">
-        <v>688.0</v>
+        <v>706.0</v>
       </c>
       <c r="D59" t="n">
-        <v>71.0</v>
+        <v>55.0</v>
       </c>
       <c r="E59" t="n">
-        <v>3425.0</v>
+        <v>4794.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>10672.0</v>
+        <v>12202.0</v>
       </c>
       <c r="B60" t="n">
-        <v>6891.0</v>
+        <v>7034.0</v>
       </c>
       <c r="C60" t="n">
-        <v>791.0</v>
+        <v>694.0</v>
       </c>
       <c r="D60" t="n">
-        <v>79.0</v>
+        <v>58.0</v>
       </c>
       <c r="E60" t="n">
-        <v>3702.0</v>
+        <v>5110.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>11499.0</v>
+        <v>12920.0</v>
       </c>
       <c r="B61" t="n">
-        <v>7375.0</v>
+        <v>7401.0</v>
       </c>
       <c r="C61" t="n">
-        <v>827.0</v>
+        <v>718.0</v>
       </c>
       <c r="D61" t="n">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="E61" t="n">
-        <v>4035.0</v>
+        <v>5457.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>12370.0</v>
+        <v>13697.0</v>
       </c>
       <c r="B62" t="n">
-        <v>7894.0</v>
+        <v>7784.0</v>
       </c>
       <c r="C62" t="n">
-        <v>871.0</v>
+        <v>777.0</v>
       </c>
       <c r="D62" t="n">
-        <v>95.0</v>
+        <v>65.0</v>
       </c>
       <c r="E62" t="n">
-        <v>4381.0</v>
+        <v>5848.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>14539.0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>8207.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>842.0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>6264.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>15340.0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>8585.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>801.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>6681.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>16216.0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>8986.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>876.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>7147.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>17136.0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>9378.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>920.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>7666.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>6072.0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3207.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>305.0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2824.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>6393.0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3362.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>321.0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2988.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>6700.0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3480.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>307.0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>3174.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>7039.0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3625.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>339.0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3367.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>7405.0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>3791.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>366.0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3565.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>7806.0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3968.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>401.0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3788.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>8289.0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>4201.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>483.0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>4034.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>8796.0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>4475.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>507.0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>4267.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>9256.0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>4705.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>4494.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>9797.0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>4980.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>541.0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>4755.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>10355.0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5270.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>558.0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>5020.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>10931.0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>5560.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>576.0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>5305.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>11486.0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>5823.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>555.0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>5594.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>12086.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>6118.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>5895.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>12715.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>6387.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>629.0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>6249.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>13437.0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>6758.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>722.0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>6589.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>14161.0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>7128.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>724.0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>6940.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>14950.0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>7517.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>789.0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>7329.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>15703.0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>7909.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>753.0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>7681.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>16533.0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>8298.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>830.0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>8117.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>17449.0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>8766.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>916.0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>8562.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>18454.0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>9290.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1005.0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>9036.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>19453.0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>9762.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>999.0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>9556.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>20580.0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>10335.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1127.0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>10106.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>21650.0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>10832.0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1070.0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>10671.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>22827.0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>11407.0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1177.0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>11261.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>23989.0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>11950.0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1162.0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>168.0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>11871.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>25268.0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>12536.0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1279.0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>12553.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>26541.0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>13116.0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1273.0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>13235.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>27951.0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>13810.0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1410.0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>13940.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>29298.0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>14379.0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1347.0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>14706.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>30768.0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>15015.0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1470.0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>15527.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>32210.0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>15618.0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1442.0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>237.0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>16355.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>33654.0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>16172.0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1444.0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>253.0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>17229.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>35198.0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>16756.0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1544.0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>18176.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>36764.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>17331.0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1566.0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>282.0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>19151.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>38220.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>17702.0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1456.0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>298.0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>20220.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>39841.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>18226.0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1621.0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>317.0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>21298.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>41523.0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>18791.0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1682.0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>333.0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>22399.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>43157.0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>19229.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1634.0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>358.0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>23570.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>44816.0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>19659.0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1659.0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>375.0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>24782.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>46577.0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>20184.0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1761.0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>391.0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>26002.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>48335.0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>20623.0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1758.0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>406.0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>27306.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>50206.0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>21126.0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1871.0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>430.0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>28650.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>52109.0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>21682.0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1903.0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>445.0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>29982.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>54029.0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>22199.0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>464.0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>31366.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>56008.0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>22751.0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1979.0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>480.0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>32777.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>58073.0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>23328.0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2065.0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>34245.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>60248.0</v>
+      </c>
+      <c r="B115" t="n">
+        <v>24006.0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2175.0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>35720.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>62491.0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>24683.0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2243.0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>541.0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>37267.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>64858.0</v>
+      </c>
+      <c r="B117" t="n">
+        <v>25513.0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2367.0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>559.0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>38786.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>67180.0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>26209.0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2322.0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>585.0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>40386.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>69656.0</v>
+      </c>
+      <c r="B119" t="n">
+        <v>27043.0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2476.0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>612.0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>42001.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>72147.0</v>
+      </c>
+      <c r="B120" t="n">
+        <v>27826.0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2491.0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>639.0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>43682.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>74769.0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>28768.0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2622.0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>667.0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>45334.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>77516.0</v>
+      </c>
+      <c r="B122" t="n">
+        <v>29668.0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2747.0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>707.0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>47141.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>80180.0</v>
+      </c>
+      <c r="B123" t="n">
+        <v>30480.0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2664.0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>733.0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>48967.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>83026.0</v>
+      </c>
+      <c r="B124" t="n">
+        <v>31409.0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2846.0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>766.0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>50851.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>85932.0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>32354.0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2906.0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>799.0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>52779.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>88798.0</v>
+      </c>
+      <c r="B126" t="n">
+        <v>33165.0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2866.0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>827.0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>54806.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>91793.0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>33980.0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2995.0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>861.0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>56952.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>94776.0</v>
+      </c>
+      <c r="B128" t="n">
+        <v>34804.0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2983.0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>898.0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>59074.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>97825.0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>35563.0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>3049.0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>929.0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>61333.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>101008.0</v>
+      </c>
+      <c r="B130" t="n">
+        <v>36482.0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>3183.0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>962.0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>63564.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>104313.0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>37513.0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>3305.0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>998.0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>65802.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>107609.0</v>
+      </c>
+      <c r="B132" t="n">
+        <v>38352.0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>3296.0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1024.0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>68233.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>110856.0</v>
+      </c>
+      <c r="B133" t="n">
+        <v>39132.0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>3247.0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1068.0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>70656.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>114243.0</v>
+      </c>
+      <c r="B134" t="n">
+        <v>39901.0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>3387.0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1106.0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>73236.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>117611.0</v>
+      </c>
+      <c r="B135" t="n">
+        <v>40634.0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>3368.0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>75847.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>121040.0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>41424.0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>3429.0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1163.0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>78453.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>124543.0</v>
+      </c>
+      <c r="B137" t="n">
+        <v>42237.0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>3503.0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1196.0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>81110.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>128074.0</v>
+      </c>
+      <c r="B138" t="n">
+        <v>42890.0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>3531.0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1233.0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>83951.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>131587.0</v>
+      </c>
+      <c r="B139" t="n">
+        <v>43504.0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>3513.0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1270.0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>86813.0</v>
       </c>
     </row>
   </sheetData>
